--- a/SAM ULTIMATE/arquivo_cliente/arquivo_linkado_todos.xlsx
+++ b/SAM ULTIMATE/arquivo_cliente/arquivo_linkado_todos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="localiza" sheetId="1" r:id="rId1"/>
@@ -1494,8 +1494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1556,7 +1556,7 @@
         <v>106</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3427,7 +3427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>

--- a/SAM ULTIMATE/arquivo_cliente/arquivo_linkado_todos.xlsx
+++ b/SAM ULTIMATE/arquivo_cliente/arquivo_linkado_todos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PauloPimenta\Desktop\SAM ULTIMATE\arquivo_cliente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinícius Pimenta\Desktop\SAM ULTIMATE\arquivo_cliente\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D4FAA5-47A9-433A-9D48-573AA6E7632D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="localiza" sheetId="1" r:id="rId1"/>
@@ -26,14 +27,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -86,9 +79,6 @@
     <t>Dc_identificador_pessoa_juridica_cliente</t>
   </si>
   <si>
-    <t>CNPJ cliente</t>
-  </si>
-  <si>
     <t>Dc_endereco_cliente</t>
   </si>
   <si>
@@ -471,13 +461,16 @@
   </si>
   <si>
     <t>Razão Social (Cliente)</t>
+  </si>
+  <si>
+    <t>CNPJ Cliente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1056,20 +1049,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1077,7 +1070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1085,7 +1078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1">
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1093,7 +1086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1">
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1101,7 +1094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1109,7 +1102,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1117,7 +1110,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1">
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -1125,364 +1118,364 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1">
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="4" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="4" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="4" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="4" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="4" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="4" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="4" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="4" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="4" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="4" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="4" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="4" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="4" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A26" s="3" t="s">
+      <c r="B26" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="4" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="4" t="s">
+    </row>
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="4" t="s">
+    </row>
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="4" t="s">
+    </row>
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="4" t="s">
+    </row>
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="4" t="s">
+    </row>
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="4" t="s">
+    </row>
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="4" t="s">
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="4" t="s">
+    </row>
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="4" t="s">
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="4" t="s">
+    </row>
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="4" t="s">
+    </row>
+    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="4" t="s">
+    </row>
+    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="4" t="s">
+    </row>
+    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A41" s="3" t="s">
+      <c r="B41" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="19" t="s">
+    </row>
+    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A42" s="3" t="s">
+      <c r="B42" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="19" t="s">
+    </row>
+    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A43" s="3" t="s">
+      <c r="B43" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="19" t="s">
+    </row>
+    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A44" s="3" t="s">
+      <c r="B44" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="19" t="s">
+    </row>
+    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A45" s="3" t="s">
+      <c r="B45" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="19" t="s">
+    </row>
+    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A46" s="3" t="s">
+      <c r="B46" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="19" t="s">
+    </row>
+    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A47" s="3" t="s">
+      <c r="B47" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="19" t="s">
+    </row>
+    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A48" s="3" t="s">
+      <c r="B48" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="19" t="s">
+    </row>
+    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A49" s="3" t="s">
+      <c r="B49" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B49" s="19" t="s">
+    </row>
+    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A50" s="3" t="s">
+      <c r="B50" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="19" t="s">
+    </row>
+    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A51" s="3" t="s">
+      <c r="B51" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B51" s="19" t="s">
+    </row>
+    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A52" s="3" t="s">
+      <c r="B52" s="19" t="s">
         <v>101</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1491,19 +1484,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1511,15 +1504,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1527,15 +1520,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1543,23 +1536,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="B7" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1567,15 +1560,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -1583,15 +1576,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1599,15 +1592,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
@@ -1615,88 +1608,88 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="5" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="5" t="s">
+      <c r="B19" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="5" t="s">
+      <c r="B20" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="5" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="B23" s="6" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="B24" s="6" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="B25" s="6" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="B26" s="6" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1705,19 +1698,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1725,7 +1718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -1733,7 +1726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -1741,7 +1734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
@@ -1749,7 +1742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
@@ -1757,7 +1750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -1765,7 +1758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
@@ -1773,268 +1766,268 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="9" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="B11" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="B16" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="9" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="B19" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="9" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="9" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="9" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="9" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="8" t="s">
+      <c r="B24" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="9" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="9" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="8" t="s">
+      <c r="B26" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B27" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2043,20 +2036,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2064,7 +2057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2072,7 +2065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1">
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2080,7 +2073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1">
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2088,7 +2081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -2096,7 +2089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -2104,7 +2097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1">
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -2112,276 +2105,276 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1">
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="4" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="4" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="4" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="4" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="4" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="4" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="4" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A26" s="3" t="s">
+      <c r="B26" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="4" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="4" t="s">
+    </row>
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="4" t="s">
+    </row>
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="4" t="s">
+    </row>
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="4" t="s">
+    </row>
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="4" t="s">
+    </row>
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="4" t="s">
+    </row>
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="4" t="s">
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="4" t="s">
+    </row>
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A36" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A37" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A38" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="4" t="s">
+    </row>
+    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" thickBot="1">
+    </row>
+    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2390,21 +2383,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2412,15 +2405,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -2428,7 +2421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
@@ -2436,7 +2429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
@@ -2444,7 +2437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
@@ -2452,7 +2445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
@@ -2460,276 +2453,276 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="11" t="s">
+      <c r="B10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="13" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="13" t="s">
+      <c r="B12" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="13" t="s">
+      <c r="B17" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="11" t="s">
-        <v>32</v>
-      </c>
       <c r="B18" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="13" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="13" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="13" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="13" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="13" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B36" s="13" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B37" s="13" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B38" s="13" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="13" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B39" s="13" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" s="13" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="13" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2738,20 +2731,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2759,7 +2752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2767,7 +2760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1">
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2775,7 +2768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1">
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2783,7 +2776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -2791,7 +2784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -2799,7 +2792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1">
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -2807,276 +2800,276 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1">
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="4" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="4" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A23" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="4" t="s">
+      <c r="B26" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A27" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A28" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A29" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A30" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="4" t="s">
+      <c r="B31" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A31" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A32" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A33" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A34" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" thickBot="1">
+    </row>
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" thickBot="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" thickBot="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" thickBot="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" thickBot="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" thickBot="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="19" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" thickBot="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" thickBot="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3085,20 +3078,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -3106,31 +3099,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A4" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3138,7 +3131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>6</v>
       </c>
@@ -3146,7 +3139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1">
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3154,7 +3147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1">
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -3162,7 +3155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1">
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3170,252 +3163,252 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1">
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="15" t="s">
+      <c r="B32" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A27" t="s">
-        <v>109</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A28" t="s">
-        <v>133</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A29" t="s">
-        <v>134</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A30" t="s">
-        <v>104</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A31" t="s">
-        <v>110</v>
-      </c>
-      <c r="B31" s="15" t="s">
+      <c r="B33" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A37" t="s">
+      <c r="B37" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="B37" s="18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A38" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A39" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="18" t="s">
+    </row>
+    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="18" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A40" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3424,20 +3417,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3445,7 +3438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -3453,7 +3446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1">
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -3461,7 +3454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1">
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -3469,7 +3462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -3477,7 +3470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -3485,7 +3478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1">
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -3493,348 +3486,348 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1">
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" thickBot="1">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="4" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="4" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="4" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="4" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="4" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="4" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="4" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A26" s="3" t="s">
+      <c r="B26" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="4" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="4" t="s">
+    </row>
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="4" t="s">
+    </row>
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="4" t="s">
+    </row>
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="4" t="s">
+    </row>
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="4" t="s">
+    </row>
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="4" t="s">
+    </row>
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="4" t="s">
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="4" t="s">
+    </row>
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A36" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A37" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A38" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="4" t="s">
+      <c r="B39" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A39" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A40" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A41" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="B41" s="19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="19" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A42" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A43" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A44" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A45" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A46" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A47" s="3" t="s">
+    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="19" t="s">
         <v>91</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A48" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A49" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A50" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
